--- a/IP.xlsx
+++ b/IP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nithu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9001C69-4561-4D43-9398-2EBAC916F4FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AA3228-66C1-419B-AF7A-59A71666C4FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Salesforce_tp" sheetId="2" r:id="rId1"/>
@@ -667,7 +667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:I14"/>
     </sheetView>
   </sheetViews>
@@ -944,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I20"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
